--- a/teaching/traditional_assets/database/data/ireland/ireland_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/ireland/ireland_oil_gas_production_and_exploration.xlsx
@@ -591,118 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0881</v>
+        <v>0.008</v>
       </c>
       <c r="G2">
-        <v>-12.52855185015989</v>
+        <v>-8.987941045109423</v>
       </c>
       <c r="H2">
-        <v>-12.52855185015989</v>
+        <v>-8.987941045109423</v>
       </c>
       <c r="I2">
-        <v>-35.11942202962718</v>
+        <v>-28.7863713585846</v>
       </c>
       <c r="J2">
-        <v>-35.11942202962718</v>
+        <v>-28.7863713585846</v>
       </c>
       <c r="K2">
-        <v>-74.584</v>
+        <v>-112.113</v>
       </c>
       <c r="L2">
-        <v>-34.0721790772042</v>
+        <v>-50.07280035730237</v>
       </c>
       <c r="M2">
-        <v>31.386</v>
+        <v>35.903</v>
       </c>
       <c r="N2">
-        <v>0.06878972515670889</v>
+        <v>0.093184354641958</v>
       </c>
       <c r="O2">
-        <v>-0.4208141156280167</v>
+        <v>-0.3202394013183127</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.08642840457836953</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>-0.297021754836638</v>
       </c>
       <c r="S2">
-        <v>31.386</v>
+        <v>2.602999999999999</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.07250090521683422</v>
       </c>
       <c r="U2">
-        <v>30.435</v>
+        <v>52.023</v>
       </c>
       <c r="V2">
-        <v>0.06670538727918292</v>
+        <v>0.1350229697111267</v>
       </c>
       <c r="W2">
-        <v>-0.07091221912053289</v>
+        <v>-0.2351430131362645</v>
       </c>
       <c r="X2">
-        <v>0.08926088716511399</v>
+        <v>0.06135765322134987</v>
       </c>
       <c r="Y2">
-        <v>-0.1601731062856469</v>
+        <v>-0.2965006663576144</v>
       </c>
       <c r="Z2">
-        <v>0.004131879833382242</v>
+        <v>0.005040165693159735</v>
       </c>
       <c r="AA2">
-        <v>-0.0698029137131498</v>
+        <v>-0.08555866963926978</v>
       </c>
       <c r="AB2">
-        <v>0.0885370834886631</v>
+        <v>0.06103582469792974</v>
       </c>
       <c r="AC2">
-        <v>-0.1582272045709501</v>
+        <v>-0.1465774973476638</v>
       </c>
       <c r="AD2">
-        <v>7.466</v>
+        <v>13.439</v>
       </c>
       <c r="AE2">
-        <v>4.157074114269562</v>
+        <v>0.1034273593546094</v>
       </c>
       <c r="AF2">
-        <v>11.62307411426956</v>
+        <v>13.54242735935461</v>
       </c>
       <c r="AG2">
-        <v>-18.81192588573044</v>
+        <v>-38.48057264064539</v>
       </c>
       <c r="AH2">
-        <v>0.02484183497398946</v>
+        <v>0.03395518124997559</v>
       </c>
       <c r="AI2">
-        <v>0.02424402886287821</v>
+        <v>0.03842374624018571</v>
       </c>
       <c r="AJ2">
-        <v>-0.04300379176161698</v>
+        <v>-0.1109559591088418</v>
       </c>
       <c r="AK2">
-        <v>-0.04189877786659493</v>
+        <v>-0.1280865101611614</v>
       </c>
       <c r="AL2">
-        <v>1.904</v>
+        <v>0.87</v>
       </c>
       <c r="AM2">
-        <v>-30.603</v>
+        <v>-24.478</v>
       </c>
       <c r="AN2">
-        <v>-0.3123457306614232</v>
+        <v>-0.4949907918968692</v>
       </c>
       <c r="AO2">
-        <v>-40.40021008403362</v>
+        <v>-74.17471264367816</v>
       </c>
       <c r="AP2">
-        <v>0.787011081693948</v>
+        <v>1.417332325622298</v>
       </c>
       <c r="AQ2">
-        <v>2.513544423749306</v>
+        <v>2.636326497262848</v>
       </c>
     </row>
     <row r="3">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.301</v>
+        <v>-0.411</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,31 +746,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.54</v>
+        <v>0.235</v>
       </c>
       <c r="V3">
-        <v>0.05294117647058824</v>
+        <v>0.04409005628517823</v>
       </c>
       <c r="W3">
-        <v>1.575916230366492</v>
+        <v>-3.841121495327103</v>
       </c>
       <c r="X3">
-        <v>0.08827535355128652</v>
+        <v>0.06089823974395744</v>
       </c>
       <c r="Y3">
-        <v>1.487640876815205</v>
+        <v>-3.90201973507106</v>
       </c>
       <c r="Z3">
         <v>-0</v>
       </c>
       <c r="AA3">
-        <v>0.5972222222222222</v>
+        <v>0.94919168591224</v>
       </c>
       <c r="AB3">
-        <v>0.08827535355128652</v>
+        <v>0.06089823974395744</v>
       </c>
       <c r="AC3">
-        <v>0.5089468686709357</v>
+        <v>0.8882934461682825</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -782,31 +782,25 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.54</v>
+        <v>-0.235</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3">
-        <v>-0.05590062111801242</v>
+        <v>-0.04612365063788027</v>
       </c>
       <c r="AK3">
-        <v>1.247113163972286</v>
+        <v>0.4554263565891473</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>-0</v>
-      </c>
-      <c r="AP3">
-        <v>2.347826086956522</v>
       </c>
     </row>
     <row r="4">
@@ -826,16 +820,16 @@
         </is>
       </c>
       <c r="K4">
-        <v>-0.299</v>
+        <v>-0.342</v>
       </c>
       <c r="M4">
-        <v>0.886</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.1340393343419062</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>-2.963210702341137</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -847,73 +841,70 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.886</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.037</v>
+        <v>0.233</v>
       </c>
       <c r="V4">
-        <v>0.005597579425113464</v>
+        <v>0.01595890410958904</v>
       </c>
       <c r="W4">
-        <v>-0.01633879781420765</v>
+        <v>-0.01976878612716763</v>
       </c>
       <c r="X4">
-        <v>0.1007110072163441</v>
+        <v>0.06519662050344978</v>
       </c>
       <c r="Y4">
-        <v>-0.1170498050305518</v>
+        <v>-0.08496540663061741</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.01263039476375537</v>
+        <v>-0.01422971594265156</v>
       </c>
       <c r="AB4">
-        <v>0.09155711465820005</v>
+        <v>0.06237952627189663</v>
       </c>
       <c r="AC4">
-        <v>-0.1041875094219554</v>
+        <v>-0.07660924221454819</v>
       </c>
       <c r="AD4">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AG4">
-        <v>1.323</v>
+        <v>1.157</v>
       </c>
       <c r="AH4">
-        <v>0.1706398996235884</v>
+        <v>0.08692933083176985</v>
       </c>
       <c r="AI4">
-        <v>0.07288317256162916</v>
+        <v>0.07358390682901005</v>
       </c>
       <c r="AJ4">
-        <v>0.166771713097189</v>
+        <v>0.07342768293456875</v>
       </c>
       <c r="AK4">
-        <v>0.07104118563067176</v>
+        <v>0.06201425738328777</v>
       </c>
       <c r="AL4">
-        <v>0.05</v>
+        <v>0.078</v>
       </c>
       <c r="AM4">
-        <v>0.05</v>
+        <v>0.078</v>
       </c>
       <c r="AO4">
-        <v>-4.94</v>
+        <v>-3.397435897435898</v>
       </c>
       <c r="AQ4">
-        <v>-4.94</v>
+        <v>-3.397435897435898</v>
       </c>
     </row>
     <row r="5">
@@ -933,25 +924,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.475</v>
+        <v>-0.106</v>
       </c>
       <c r="G5">
-        <v>-0.7748344370860927</v>
+        <v>-0.4018404907975461</v>
       </c>
       <c r="H5">
-        <v>-0.7748344370860927</v>
+        <v>-0.4018404907975461</v>
       </c>
       <c r="I5">
-        <v>-0.7517537921516342</v>
+        <v>-0.3764284218701305</v>
       </c>
       <c r="J5">
-        <v>-0.7517537921516342</v>
+        <v>-0.3764284218701305</v>
       </c>
       <c r="K5">
-        <v>-8.380000000000001</v>
+        <v>-6.76</v>
       </c>
       <c r="L5">
-        <v>-5.549668874172186</v>
+        <v>-4.147239263803681</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -975,73 +966,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.195</v>
+        <v>0.513</v>
       </c>
       <c r="V5">
-        <v>0.04382022471910112</v>
+        <v>0.06248477466504263</v>
       </c>
       <c r="W5">
-        <v>-0.2079404466501241</v>
+        <v>-0.2119122257053292</v>
       </c>
       <c r="X5">
-        <v>0.1258402924575433</v>
+        <v>0.08450572396462933</v>
       </c>
       <c r="Y5">
-        <v>-0.3337807391076674</v>
+        <v>-0.2964179496699585</v>
       </c>
       <c r="Z5">
-        <v>0.03654781346464444</v>
+        <v>0.04729038889606876</v>
       </c>
       <c r="AA5">
-        <v>-0.02747495736689701</v>
+        <v>-0.0178014464617719</v>
       </c>
       <c r="AB5">
-        <v>0.09272905614853681</v>
+        <v>0.06674899855617444</v>
       </c>
       <c r="AC5">
-        <v>-0.1202040135154338</v>
+        <v>-0.08455044501794634</v>
       </c>
       <c r="AD5">
-        <v>2.76</v>
+        <v>4.29</v>
       </c>
       <c r="AE5">
-        <v>0.005741130744838281</v>
+        <v>0.002891638241563389</v>
       </c>
       <c r="AF5">
-        <v>2.765741130744838</v>
+        <v>4.292891638241564</v>
       </c>
       <c r="AG5">
-        <v>2.570741130744838</v>
+        <v>3.779891638241564</v>
       </c>
       <c r="AH5">
-        <v>0.3832927319081009</v>
+        <v>0.3433519030998597</v>
       </c>
       <c r="AI5">
-        <v>0.0797831242180459</v>
+        <v>0.158450847386927</v>
       </c>
       <c r="AJ5">
-        <v>0.3661637828358593</v>
+        <v>0.315256530441498</v>
       </c>
       <c r="AK5">
-        <v>0.07457748358221303</v>
+        <v>0.1422086925592759</v>
       </c>
       <c r="AL5">
-        <v>0.207</v>
+        <v>0.447</v>
       </c>
       <c r="AM5">
-        <v>-4.063</v>
+        <v>-3.633</v>
       </c>
       <c r="AN5">
-        <v>-2.477558348294434</v>
+        <v>-7.308347529812607</v>
       </c>
       <c r="AO5">
-        <v>-5.507246376811594</v>
+        <v>-1.378076062639821</v>
       </c>
       <c r="AP5">
-        <v>-2.307667083253894</v>
+        <v>-6.439338395641506</v>
       </c>
       <c r="AQ5">
-        <v>0.2805808515874969</v>
+        <v>0.1695568400770713</v>
       </c>
     </row>
     <row r="6">
@@ -1052,7 +1043,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>San Leon Energy plc (AIM:SLE)</t>
+          <t>Falcon Oil &amp; Gas Ltd. (TSXV:FO)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1061,34 +1052,34 @@
         </is>
       </c>
       <c r="D6">
-        <v>1.279</v>
+        <v>-0.167</v>
       </c>
       <c r="G6">
-        <v>-59.83606557377049</v>
+        <v>-507.4999999999999</v>
       </c>
       <c r="H6">
-        <v>-59.83606557377049</v>
+        <v>-507.4999999999999</v>
       </c>
       <c r="I6">
-        <v>-65.85538720700447</v>
+        <v>-572.5</v>
       </c>
       <c r="J6">
-        <v>-65.85538720700447</v>
+        <v>-572.5</v>
       </c>
       <c r="K6">
-        <v>-6.16</v>
+        <v>-1.45</v>
       </c>
       <c r="L6">
-        <v>-25.24590163934426</v>
+        <v>-362.5</v>
       </c>
       <c r="M6">
-        <v>30.5</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="N6">
-        <v>0.1823072325164375</v>
+        <v>0.005040286481647269</v>
       </c>
       <c r="O6">
-        <v>-4.951298701298701</v>
+        <v>-0.3882758620689655</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1100,79 +1091,76 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>30.5</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>12.2</v>
+        <v>11.5</v>
       </c>
       <c r="V6">
-        <v>0.07292289300657501</v>
+        <v>0.1029543419874664</v>
       </c>
       <c r="W6">
-        <v>-0.02268876611418048</v>
+        <v>-0.03295454545454545</v>
       </c>
       <c r="X6">
-        <v>0.09051472896722963</v>
+        <v>0.06089823974395744</v>
       </c>
       <c r="Y6">
-        <v>-0.1132034950814101</v>
+        <v>-0.0938527851985029</v>
       </c>
       <c r="Z6">
-        <v>0.0009728923002723298</v>
+        <v>0.0001298701298701299</v>
       </c>
       <c r="AA6">
-        <v>-0.06407019914514754</v>
+        <v>-0.07435064935064935</v>
       </c>
       <c r="AB6">
-        <v>0.0885716936698446</v>
+        <v>0.06089823974395744</v>
       </c>
       <c r="AC6">
-        <v>-0.1526418928149921</v>
+        <v>-0.1352488890946068</v>
       </c>
       <c r="AD6">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>3.248572392545454</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>6.198572392545454</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-6.001427607454545</v>
+        <v>-11.5</v>
       </c>
       <c r="AH6">
-        <v>0.03572693600337534</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.02690369271031998</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.0372069480742156</v>
+        <v>-0.1147704590818363</v>
       </c>
       <c r="AK6">
-        <v>-0.02750443113192238</v>
+        <v>-0.362776025236593</v>
       </c>
       <c r="AL6">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>-26.36</v>
+        <v>-0.057</v>
       </c>
       <c r="AN6">
-        <v>-0.2454447125384807</v>
-      </c>
-      <c r="AO6">
-        <v>-9.634146341463415</v>
+        <v>-0</v>
       </c>
       <c r="AP6">
-        <v>0.4993283640448078</v>
+        <v>5.58252427184466</v>
       </c>
       <c r="AQ6">
-        <v>0.5993930197268589</v>
+        <v>40.17543859649123</v>
       </c>
     </row>
     <row r="7">
@@ -1183,7 +1171,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Falcon Oil &amp; Gas Ltd. (TSXV:FO)</t>
+          <t>San Leon Energy plc (AIM:SLE)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1192,112 +1180,118 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.106</v>
+        <v>1.135</v>
       </c>
       <c r="G7">
-        <v>-136.875</v>
+        <v>-103.2222222222222</v>
       </c>
       <c r="H7">
-        <v>-136.875</v>
+        <v>-103.2222222222222</v>
       </c>
       <c r="I7">
-        <v>-140.8733075387167</v>
+        <v>-231.1111111111111</v>
       </c>
       <c r="J7">
-        <v>-140.8733075387167</v>
+        <v>-231.1111111111111</v>
       </c>
       <c r="K7">
-        <v>-1.81</v>
+        <v>-52.2</v>
       </c>
       <c r="L7">
-        <v>-113.125</v>
+        <v>-580</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>35.34</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.2367046215673141</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0.6770114942528734</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>33.3</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.2230408573342264</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0.6379310344827586</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.039999999999999</v>
+      </c>
+      <c r="T7">
+        <v>0.05772495755517825</v>
       </c>
       <c r="U7">
-        <v>13.2</v>
+        <v>35.6</v>
       </c>
       <c r="V7">
-        <v>0.0877659574468085</v>
+        <v>0.2384460817146684</v>
       </c>
       <c r="W7">
-        <v>-0.04852546916890081</v>
+        <v>-0.2328278322925959</v>
       </c>
       <c r="X7">
-        <v>0.0882833364979078</v>
+        <v>0.06172681830916935</v>
       </c>
       <c r="Y7">
-        <v>-0.1368088056668086</v>
+        <v>-0.2945546506017653</v>
       </c>
       <c r="Z7">
-        <v>0.0005361954624398405</v>
+        <v>0.000418702023726448</v>
       </c>
       <c r="AA7">
-        <v>-0.07553562828115205</v>
+        <v>-0.09676668992789021</v>
       </c>
       <c r="AB7">
-        <v>0.08827688804575608</v>
+        <v>0.0611394156728307</v>
       </c>
       <c r="AC7">
-        <v>-0.1638125163269081</v>
+        <v>-0.1579061056007209</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AE7">
-        <v>0.01986460309733525</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.01986460309733525</v>
+        <v>2.74</v>
       </c>
       <c r="AG7">
-        <v>-13.18013539690266</v>
+        <v>-32.86</v>
       </c>
       <c r="AH7">
-        <v>0.0001320610356201997</v>
+        <v>0.01802157327019206</v>
       </c>
       <c r="AI7">
-        <v>0.0004442008774767045</v>
+        <v>0.01793898127536991</v>
       </c>
       <c r="AJ7">
-        <v>-0.09605121995292482</v>
+        <v>-0.2822054276880797</v>
       </c>
       <c r="AK7">
-        <v>-0.4181532999227256</v>
+        <v>-0.2805190370496841</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="AM7">
-        <v>-0.145</v>
+        <v>-21.064</v>
       </c>
       <c r="AN7">
-        <v>-0</v>
+        <v>-0.1457446808510638</v>
+      </c>
+      <c r="AO7">
+        <v>-152.9411764705882</v>
       </c>
       <c r="AP7">
-        <v>6.52481950341716</v>
+        <v>1.747872340425532</v>
       </c>
       <c r="AQ7">
-        <v>15.58620689655172</v>
+        <v>0.9874667679453095</v>
       </c>
     </row>
     <row r="8">
@@ -1308,7 +1302,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Providence Resources P.l.c. (ISE:PZQA)</t>
+          <t>Aminex PLC (LSE:AEX)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1316,8 +1310,26 @@
           <t>Oil/Gas (Production and Exploration)</t>
         </is>
       </c>
+      <c r="D8">
+        <v>0.122</v>
+      </c>
+      <c r="G8">
+        <v>-6.660194174757281</v>
+      </c>
+      <c r="H8">
+        <v>-6.660194174757281</v>
+      </c>
+      <c r="I8">
+        <v>-26.01941747572815</v>
+      </c>
+      <c r="J8">
+        <v>-26.01941747572815</v>
+      </c>
       <c r="K8">
-        <v>-9.050000000000001</v>
+        <v>-14.2</v>
+      </c>
+      <c r="L8">
+        <v>-27.57281553398058</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1341,70 +1353,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>2.03</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="V8">
-        <v>0.08353909465020574</v>
+        <v>0.03148648648648648</v>
       </c>
       <c r="W8">
-        <v>-0.09329896907216495</v>
+        <v>-0.2374581939799331</v>
       </c>
       <c r="X8">
-        <v>0.08904147263052069</v>
+        <v>0.06852466876016737</v>
       </c>
       <c r="Y8">
-        <v>-0.1823404417026857</v>
+        <v>-0.3059828627401005</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.008861739654134046</v>
       </c>
       <c r="AA8">
-        <v>-0.1003584665191946</v>
+        <v>-0.2305773036221286</v>
       </c>
       <c r="AB8">
-        <v>0.08884464567307959</v>
+        <v>0.07346933778443522</v>
       </c>
       <c r="AC8">
-        <v>-0.1892031121922742</v>
+        <v>-0.3040466414065638</v>
       </c>
       <c r="AD8">
-        <v>0.051</v>
+        <v>5</v>
       </c>
       <c r="AE8">
-        <v>0.2570146563471958</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.3080146563471958</v>
+        <v>5</v>
       </c>
       <c r="AG8">
-        <v>-1.721985343652804</v>
+        <v>4.068</v>
       </c>
       <c r="AH8">
-        <v>0.01251684301430424</v>
+        <v>0.1445086705202312</v>
       </c>
       <c r="AI8">
-        <v>0.003515827376700862</v>
+        <v>0.09823182711198429</v>
       </c>
       <c r="AJ8">
-        <v>-0.07626823570905578</v>
+        <v>0.1208268979446358</v>
       </c>
       <c r="AK8">
-        <v>-0.02012181926126382</v>
+        <v>0.08141210374639769</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="AM8">
-        <v>-0.08799999999999999</v>
+        <v>0.055</v>
       </c>
       <c r="AN8">
-        <v>-0.0122184954480115</v>
+        <v>-2.173913043478261</v>
+      </c>
+      <c r="AO8">
+        <v>-239.2857142857143</v>
       </c>
       <c r="AP8">
-        <v>0.4125503937836138</v>
+        <v>-1.768695652173913</v>
       </c>
       <c r="AQ8">
-        <v>96.47727272727273</v>
+        <v>-243.6363636363637</v>
       </c>
     </row>
     <row r="9">
@@ -1415,7 +1430,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Petrel Resources Plc (AIM:PET)</t>
+          <t>Providence Resources P.l.c. (ISE:PZQA)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1424,7 +1439,7 @@
         </is>
       </c>
       <c r="K9">
-        <v>-0.284</v>
+        <v>-34.4</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1448,61 +1463,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.203</v>
+        <v>2.55</v>
       </c>
       <c r="V9">
-        <v>0.004582392776523702</v>
+        <v>0.04264214046822742</v>
       </c>
       <c r="W9">
-        <v>-0.1251101321585903</v>
+        <v>-0.3940435280641466</v>
       </c>
       <c r="X9">
-        <v>0.08827535355128652</v>
+        <v>0.0609884881335304</v>
       </c>
       <c r="Y9">
-        <v>-0.2133854857098768</v>
+        <v>-0.455032016197677</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>-0.1324626865671642</v>
+        <v>-0.2847420962277413</v>
       </c>
       <c r="AB9">
-        <v>0.08827535355128652</v>
+        <v>0.06093223372302879</v>
       </c>
       <c r="AC9">
-        <v>-0.2207380401184507</v>
+        <v>-0.3456743299507701</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.100535721113046</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.119535721113046</v>
       </c>
       <c r="AG9">
-        <v>-0.203</v>
+        <v>-2.430464278886954</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.001994937371834923</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.002025358547005386</v>
       </c>
       <c r="AJ9">
-        <v>-0.004603487765607639</v>
+        <v>-0.04236506794654951</v>
       </c>
       <c r="AK9">
-        <v>-0.08876257105378224</v>
+        <v>-0.043040273801618</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.153</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.143</v>
+      </c>
+      <c r="AN9">
+        <v>-0.005583308845136644</v>
+      </c>
+      <c r="AO9">
+        <v>-159.4771241830065</v>
+      </c>
+      <c r="AP9">
+        <v>0.7142122476893781</v>
+      </c>
+      <c r="AQ9">
+        <v>-170.6293706293706</v>
       </c>
     </row>
     <row r="10">
@@ -1513,7 +1540,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aminex PLC (LSE:AEX)</t>
+          <t>Petrel Resources Plc (AIM:PET)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1521,26 +1548,8 @@
           <t>Oil/Gas (Production and Exploration)</t>
         </is>
       </c>
-      <c r="D10">
-        <v>-0.0702</v>
-      </c>
-      <c r="G10">
-        <v>-11.8854415274463</v>
-      </c>
-      <c r="H10">
-        <v>-11.8854415274463</v>
-      </c>
-      <c r="I10">
-        <v>-115.2056712799689</v>
-      </c>
-      <c r="J10">
-        <v>-115.2056712799689</v>
-      </c>
       <c r="K10">
-        <v>-48.3</v>
-      </c>
-      <c r="L10">
-        <v>-115.2744630071599</v>
+        <v>-2.35</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1564,73 +1573,61 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2.03</v>
+        <v>0.46</v>
       </c>
       <c r="V10">
-        <v>0.04168377823408623</v>
+        <v>0.06814814814814815</v>
       </c>
       <c r="W10">
-        <v>-0.4565217391304348</v>
+        <v>-0.9437751004016064</v>
       </c>
       <c r="X10">
-        <v>0.0894803016997073</v>
+        <v>0.06089823974395744</v>
       </c>
       <c r="Y10">
-        <v>-0.546002040830142</v>
+        <v>-1.004673340145564</v>
       </c>
       <c r="Z10">
-        <v>0.004037547015971976</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-0.4651483142994866</v>
+        <v>-1.027547004809794</v>
       </c>
       <c r="AB10">
-        <v>0.08850247330748158</v>
+        <v>0.06089823974395744</v>
       </c>
       <c r="AC10">
-        <v>-0.5536507876069682</v>
+        <v>-1.088445244553752</v>
       </c>
       <c r="AD10">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.6258813315347381</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.9708813315347381</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>-1.059118668465262</v>
+        <v>-0.46</v>
       </c>
       <c r="AH10">
-        <v>0.01954628759361978</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.0159760943113217</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>-0.02223129881025529</v>
+        <v>-0.07313195548489666</v>
       </c>
       <c r="AK10">
-        <v>-0.01803035031918527</v>
+        <v>-1.074766355140187</v>
       </c>
       <c r="AL10">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.003</v>
-      </c>
-      <c r="AN10">
-        <v>-0.07938334100322135</v>
-      </c>
-      <c r="AO10">
-        <v>-6914.285714285714</v>
-      </c>
-      <c r="AP10">
-        <v>0.2436996475990017</v>
-      </c>
-      <c r="AQ10">
-        <v>-16133.33333333333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
